--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4310D-4882-4DBB-8018-BAFC45F9308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92DEB8-FBEA-48DA-983B-99C2D807A201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="950">
   <si>
     <t>id</t>
   </si>
@@ -2605,6 +2605,394 @@
 Generate training programs for use by target groups
 Work with different value chains to understand their needs
 </t>
+  </si>
+  <si>
+    <t>2025-05-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Kadiri Rashad</t>
+  </si>
+  <si>
+    <t>Croplife Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive Director </t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>+233(0)249689725</t>
+  </si>
+  <si>
+    <t>rkadiri@croplifeghana.org</t>
+  </si>
+  <si>
+    <t>Www.Croplife Ghana.org</t>
+  </si>
+  <si>
+    <t>EPA Act 2025 Act 1125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> January 2025</t>
+  </si>
+  <si>
+    <t>EPA act 2025, act 1125</t>
+  </si>
+  <si>
+    <t>Copyright Act, 2005 (Act 690); the Patents Act, 2003 (Act 657); the Trademarks Act, 2004 (Act 664); the Industrial Designs Act, 2003 (Act 660); and the Protection Against Unfair Competition Act, 2000 (Act 589).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Protection Authority </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apex farmers organization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peasant farmers organization </t>
+  </si>
+  <si>
+    <t>Cereal inter professional committee of Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers organization network </t>
+  </si>
+  <si>
+    <t>Wenchi cashew farmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited research 
+Low adoption rate
+Cultural barriers 
+Over dependence on government </t>
+  </si>
+  <si>
+    <t>Difficulty for smallholder farmers to accept and adopt new technologies in the short and medium term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited monitoring and post registration activities largely due to lack of both human and financial resources </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broader stakeholders engagement 
+Favorable policies 
+Private sector participation 
+Resource mobilization and access to funds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favorable policies 
+Promoting public private partnerships 
+Access to funding 
+Awareness creation through an enabling environment </t>
+  </si>
+  <si>
+    <t>2025-05-04 00:00:00</t>
+  </si>
+  <si>
+    <t>Domnic Oludhe</t>
+  </si>
+  <si>
+    <t>Osho Chemical Industries Ltd</t>
+  </si>
+  <si>
+    <t>Senior Executive Officer Product Research and Registration</t>
+  </si>
+  <si>
+    <t>49916-00100</t>
+  </si>
+  <si>
+    <t>0701796834</t>
+  </si>
+  <si>
+    <t>domnic.ochieng@oshochem.com</t>
+  </si>
+  <si>
+    <t>www.oshochem.com</t>
+  </si>
+  <si>
+    <t>PCPB ACT</t>
+  </si>
+  <si>
+    <t>KIPI ACT</t>
+  </si>
+  <si>
+    <t>The Civil Aviation (Unmanned Aircraft Systems) Regulations, 2020</t>
+  </si>
+  <si>
+    <t>A NATIONAL BIOTECHNOLOGY  DEVELOPMENT POLICY 2006</t>
+  </si>
+  <si>
+    <t>PCP</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>PEST CONTROL PRODUCTS BOARD</t>
+  </si>
+  <si>
+    <t>RENEWALS</t>
+  </si>
+  <si>
+    <t>NOT SURE</t>
+  </si>
+  <si>
+    <t>iInput suppliers are now training farmers on how to adopt IPM for sustainable pest management</t>
+  </si>
+  <si>
+    <t>Local production of pesticides is very expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereal Growers association </t>
+  </si>
+  <si>
+    <t>Kenya Flower Council</t>
+  </si>
+  <si>
+    <t>Fresh Produce Exporters of Kenya</t>
+  </si>
+  <si>
+    <t>Kenya Tea Development Authority</t>
+  </si>
+  <si>
+    <t>Lack of government support especially local innovations
+Lack of adoption by farmers due to inadequate purchasing power</t>
+  </si>
+  <si>
+    <t>Activists calling for withdrawal of some active ingredients</t>
+  </si>
+  <si>
+    <t>lack of difference when regulating indegeneous vs imported biopesticides</t>
+  </si>
+  <si>
+    <t>lack of difference when regulating indegeneous vs imported biocontrold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of enough resources especially for the small holders.. </t>
+  </si>
+  <si>
+    <t>lack of enough personel leads to some delays in approval</t>
+  </si>
+  <si>
+    <t>A link between the academia and the private sector
+Favourable government policies to support innovation flow</t>
+  </si>
+  <si>
+    <t>Have officers dedicated to biopesticides and have regulations specific to biopesticides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sponsor the academia for more research
+Engage more with the academia for upcoming research ideas
+Use their staff in the field for information dissemination
+</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Kenneth Chipere</t>
+  </si>
+  <si>
+    <t>Ministry of Agriculture, Research Services Department</t>
+  </si>
+  <si>
+    <t>Principal Research Officer,Pesticide Registration</t>
+  </si>
+  <si>
+    <t>5th street extension, Harare</t>
+  </si>
+  <si>
+    <t>0773526507</t>
+  </si>
+  <si>
+    <t>achiperek@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.drss.gov.zw/index.php/library/library-services/fertilizer-farm-feeds-and-remedies</t>
+  </si>
+  <si>
+    <t>Pesticide Regulations(Statutory Instrument 144  of 2012)</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>National Biotechnology Authority (Agricultural  Biotechnology Products) Regulations, 2018(STATUTORY INSTRUMENT  160 of 2018)</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Iam not sure</t>
+  </si>
+  <si>
+    <t>In process</t>
+  </si>
+  <si>
+    <t>NATIONALBIOTECHNOLOGY AUTHORITY ACT  [CHAPTER 14:31]</t>
+  </si>
+  <si>
+    <t>NATIONALBIOTECHNOLOGY AUTHORITY ACT  [CHAPTER 14:31] and Operationalised by STATUTORY INSTRUMENT  160 of 2018</t>
+  </si>
+  <si>
+    <t>Fertilizers, Farm Feeds and Remedies Institute, within the Ministry of Agriculture</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Biopesticides development by students at Tertiary Level education and currently being evaluated for safety and also stability</t>
+  </si>
+  <si>
+    <t>Agricultural And Rural Development Advisory Services</t>
+  </si>
+  <si>
+    <t>Zimbabwe Farmers Union</t>
+  </si>
+  <si>
+    <t>Commercial Farmers Union</t>
+  </si>
+  <si>
+    <t>Horticultural Development Council Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe Agricultural Society </t>
+  </si>
+  <si>
+    <t>Limited resources for innovations</t>
+  </si>
+  <si>
+    <t>Limited human and financial resources to effectively regulate</t>
+  </si>
+  <si>
+    <t>Limited human and financial resources to effectively regulate, two pieces of legislation from two different ministries regulating biopesticides</t>
+  </si>
+  <si>
+    <t>Limited human and financial resources to effectively develop and transfer the technologies. Public Private Partnerships can assist.</t>
+  </si>
+  <si>
+    <t>Limited human and financial resources to effectively regulate.</t>
+  </si>
+  <si>
+    <t>There is a need for a Public-Private Partnership to assist in resource mobilisation.</t>
+  </si>
+  <si>
+    <t>Review the legislation and align it with international best practice.</t>
+  </si>
+  <si>
+    <t>Continuous support for Public-Private Partnership.</t>
+  </si>
+  <si>
+    <t>Raphael Mwezi</t>
+  </si>
+  <si>
+    <t>Tanzania Plant Health and Pesticides Authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesticides Regulator </t>
+  </si>
+  <si>
+    <t>Ngaramtoni, P. O. Box 3024</t>
+  </si>
+  <si>
+    <t>0762730637</t>
+  </si>
+  <si>
+    <t>+255782725545</t>
+  </si>
+  <si>
+    <t>rafamwezyyy@gmail.com</t>
+  </si>
+  <si>
+    <t>www.tphpa.go.tz</t>
+  </si>
+  <si>
+    <t>Plant Health Act. No. 4 of 2020</t>
+  </si>
+  <si>
+    <t>April 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVLA </t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>Very little</t>
+  </si>
+  <si>
+    <t>For early starter</t>
+  </si>
+  <si>
+    <t>TAHA</t>
+  </si>
+  <si>
+    <t>SUWAMA</t>
+  </si>
+  <si>
+    <t>FARMERS CORPERATIVES UNIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital
+Innovation policies
+Incububators
+Mid-set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of effective and fully operational systems for pesticide regulation and control, and support to farmers on best practices in sustainable pest management and pesticide use. 
+Lack of sufficient trained manpower and requisite infrastructure, including laboratory facilities, which impede sound pesticide regulation. 
+To this effect, banned, unregistered or counterfeit pesticides as well as HHPs are widely available on the East African pesticide market.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack effective and fully operational systems for pesticide regulation and control and support to farmers on best practices in sustainable pest management and pesticide use. 
+Lack sufficient trained manpower and requisite infrastructure including laboratory facilities which impend to sound pesticide regulation. 
+To this effect, banned, unregistered or counterfeit pesticides as well as HHPs are widely available on the East African pesticide market.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack effective and fully operational systems for pesticide regulation and control and support to farmers on best practices in sustainable pest management and pesticide use. 
+Lack sufficient trained manpower and requisite infrastructure including laboratory facilities which impend to sound pesticide regulation. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- E - system for receiving applications 
+- Funding to implement big innovations
+- Tanzania is very big country, borders are porous 
+- Lack of dressing technology and other high tech </t>
+  </si>
+  <si>
+    <t>- The private sector to venture into the R&amp;D institutions and academic institutions 
+-  Regulatory authority to venture with an academic institution in finding titles and key research problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Policy
+- Awareness
+- Mind change to farmers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- To make partneship between private sector and the government </t>
   </si>
 </sst>
 </file>
@@ -2957,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS30"/>
+  <dimension ref="A1:FS34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11807,6 +12195,1406 @@
         <v>830</v>
       </c>
     </row>
+    <row r="31" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31">
+        <v>1007133186</v>
+      </c>
+      <c r="F31" t="s">
+        <v>831</v>
+      </c>
+      <c r="G31" t="s">
+        <v>832</v>
+      </c>
+      <c r="H31" t="s">
+        <v>833</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" t="s">
+        <v>834</v>
+      </c>
+      <c r="K31" t="s">
+        <v>835</v>
+      </c>
+      <c r="L31" t="s">
+        <v>836</v>
+      </c>
+      <c r="N31" t="s">
+        <v>837</v>
+      </c>
+      <c r="O31" t="s">
+        <v>838</v>
+      </c>
+      <c r="P31" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>187</v>
+      </c>
+      <c r="R31" t="s">
+        <v>840</v>
+      </c>
+      <c r="S31" t="s">
+        <v>841</v>
+      </c>
+      <c r="U31" t="s">
+        <v>842</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>843</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>843</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>3</v>
+      </c>
+      <c r="AY31">
+        <v>4</v>
+      </c>
+      <c r="AZ31">
+        <v>3</v>
+      </c>
+      <c r="BA31">
+        <v>3</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>3</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>276</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>844</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>187</v>
+      </c>
+      <c r="DO31">
+        <v>3</v>
+      </c>
+      <c r="DP31">
+        <v>2</v>
+      </c>
+      <c r="DQ31">
+        <v>2</v>
+      </c>
+      <c r="DR31">
+        <v>2</v>
+      </c>
+      <c r="DS31">
+        <v>1</v>
+      </c>
+      <c r="DU31" t="s">
+        <v>201</v>
+      </c>
+      <c r="DV31">
+        <v>2</v>
+      </c>
+      <c r="DW31">
+        <v>3</v>
+      </c>
+      <c r="DX31">
+        <v>3</v>
+      </c>
+      <c r="DY31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EA31" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EE31" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG31" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP31" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ31" t="s">
+        <v>282</v>
+      </c>
+      <c r="ER31" t="s">
+        <v>282</v>
+      </c>
+      <c r="ES31" t="s">
+        <v>282</v>
+      </c>
+      <c r="ET31" t="s">
+        <v>845</v>
+      </c>
+      <c r="EU31" t="s">
+        <v>846</v>
+      </c>
+      <c r="EV31" t="s">
+        <v>847</v>
+      </c>
+      <c r="EW31" t="s">
+        <v>848</v>
+      </c>
+      <c r="EX31" t="s">
+        <v>849</v>
+      </c>
+      <c r="EY31">
+        <v>2</v>
+      </c>
+      <c r="EZ31">
+        <v>4</v>
+      </c>
+      <c r="FA31">
+        <v>4</v>
+      </c>
+      <c r="FB31">
+        <v>3</v>
+      </c>
+      <c r="FC31">
+        <v>3</v>
+      </c>
+      <c r="FD31">
+        <v>4</v>
+      </c>
+      <c r="FE31">
+        <v>3</v>
+      </c>
+      <c r="FF31">
+        <v>3</v>
+      </c>
+      <c r="FG31" t="s">
+        <v>201</v>
+      </c>
+      <c r="FH31" t="s">
+        <v>201</v>
+      </c>
+      <c r="FI31" t="s">
+        <v>201</v>
+      </c>
+      <c r="FJ31" t="s">
+        <v>850</v>
+      </c>
+      <c r="FN31" t="s">
+        <v>851</v>
+      </c>
+      <c r="FO31" t="s">
+        <v>852</v>
+      </c>
+      <c r="FP31" t="s">
+        <v>853</v>
+      </c>
+      <c r="FR31" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32">
+        <v>1651959671</v>
+      </c>
+      <c r="F32" t="s">
+        <v>855</v>
+      </c>
+      <c r="G32" t="s">
+        <v>684</v>
+      </c>
+      <c r="H32" t="s">
+        <v>856</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>857</v>
+      </c>
+      <c r="K32" t="s">
+        <v>858</v>
+      </c>
+      <c r="L32" t="s">
+        <v>859</v>
+      </c>
+      <c r="M32" t="s">
+        <v>860</v>
+      </c>
+      <c r="N32" t="s">
+        <v>860</v>
+      </c>
+      <c r="O32" t="s">
+        <v>861</v>
+      </c>
+      <c r="P32" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>226</v>
+      </c>
+      <c r="R32" t="s">
+        <v>863</v>
+      </c>
+      <c r="U32" t="s">
+        <v>226</v>
+      </c>
+      <c r="V32" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>863</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>864</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>864</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>864</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>865</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>866</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>867</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>868</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>868</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>5</v>
+      </c>
+      <c r="AY32">
+        <v>5</v>
+      </c>
+      <c r="AZ32">
+        <v>5</v>
+      </c>
+      <c r="BA32">
+        <v>5</v>
+      </c>
+      <c r="BB32">
+        <v>5</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>419</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>869</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>870</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>870</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>871</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>871</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>871</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>871</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>871</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>871</v>
+      </c>
+      <c r="DO32">
+        <v>3</v>
+      </c>
+      <c r="DP32">
+        <v>2</v>
+      </c>
+      <c r="DQ32">
+        <v>2</v>
+      </c>
+      <c r="DR32">
+        <v>2</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>872</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV32">
+        <v>3</v>
+      </c>
+      <c r="DW32">
+        <v>3</v>
+      </c>
+      <c r="DX32">
+        <v>4</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>873</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>282</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>282</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>874</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>875</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>876</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>877</v>
+      </c>
+      <c r="EY32">
+        <v>4</v>
+      </c>
+      <c r="EZ32">
+        <v>3</v>
+      </c>
+      <c r="FA32">
+        <v>3</v>
+      </c>
+      <c r="FB32">
+        <v>3</v>
+      </c>
+      <c r="FC32">
+        <v>2</v>
+      </c>
+      <c r="FD32">
+        <v>3</v>
+      </c>
+      <c r="FE32">
+        <v>3</v>
+      </c>
+      <c r="FF32">
+        <v>1</v>
+      </c>
+      <c r="FG32" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH32" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI32" t="s">
+        <v>187</v>
+      </c>
+      <c r="FJ32" t="s">
+        <v>878</v>
+      </c>
+      <c r="FK32" t="s">
+        <v>879</v>
+      </c>
+      <c r="FL32" t="s">
+        <v>880</v>
+      </c>
+      <c r="FM32" t="s">
+        <v>881</v>
+      </c>
+      <c r="FN32" t="s">
+        <v>882</v>
+      </c>
+      <c r="FO32" t="s">
+        <v>883</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>884</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>885</v>
+      </c>
+      <c r="FR32" t="s">
+        <v>886</v>
+      </c>
+      <c r="FS32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33">
+        <v>623792164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>855</v>
+      </c>
+      <c r="G33" t="s">
+        <v>887</v>
+      </c>
+      <c r="H33" t="s">
+        <v>888</v>
+      </c>
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" t="s">
+        <v>889</v>
+      </c>
+      <c r="K33" t="s">
+        <v>890</v>
+      </c>
+      <c r="L33" t="s">
+        <v>891</v>
+      </c>
+      <c r="M33" t="s">
+        <v>892</v>
+      </c>
+      <c r="N33" t="s">
+        <v>892</v>
+      </c>
+      <c r="O33" t="s">
+        <v>893</v>
+      </c>
+      <c r="P33" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R33" t="s">
+        <v>895</v>
+      </c>
+      <c r="S33" t="s">
+        <v>896</v>
+      </c>
+      <c r="U33" t="s">
+        <v>187</v>
+      </c>
+      <c r="V33" t="s">
+        <v>895</v>
+      </c>
+      <c r="W33" t="s">
+        <v>896</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>897</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>898</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>899</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>899</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>900</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>901</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>902</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>4</v>
+      </c>
+      <c r="AY33">
+        <v>3</v>
+      </c>
+      <c r="AZ33">
+        <v>4</v>
+      </c>
+      <c r="BA33">
+        <v>4</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>419</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>903</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>187</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>904</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>905</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>374</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>350</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>374</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>350</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>374</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>350</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>374</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>350</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>374</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>350</v>
+      </c>
+      <c r="DO33">
+        <v>4</v>
+      </c>
+      <c r="DP33">
+        <v>1</v>
+      </c>
+      <c r="DQ33">
+        <v>3</v>
+      </c>
+      <c r="DR33">
+        <v>4</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>906</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV33">
+        <v>3</v>
+      </c>
+      <c r="DW33">
+        <v>4</v>
+      </c>
+      <c r="DX33">
+        <v>3</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC33" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE33" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG33" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI33" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ33" t="s">
+        <v>282</v>
+      </c>
+      <c r="EK33" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>282</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>282</v>
+      </c>
+      <c r="EN33" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO33" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP33" t="s">
+        <v>282</v>
+      </c>
+      <c r="EQ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER33" t="s">
+        <v>282</v>
+      </c>
+      <c r="ES33" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET33" t="s">
+        <v>907</v>
+      </c>
+      <c r="EU33" t="s">
+        <v>908</v>
+      </c>
+      <c r="EV33" t="s">
+        <v>909</v>
+      </c>
+      <c r="EW33" t="s">
+        <v>910</v>
+      </c>
+      <c r="EX33" t="s">
+        <v>911</v>
+      </c>
+      <c r="EY33">
+        <v>4</v>
+      </c>
+      <c r="EZ33">
+        <v>3</v>
+      </c>
+      <c r="FA33">
+        <v>3</v>
+      </c>
+      <c r="FB33">
+        <v>4</v>
+      </c>
+      <c r="FC33">
+        <v>4</v>
+      </c>
+      <c r="FD33">
+        <v>4</v>
+      </c>
+      <c r="FE33">
+        <v>4</v>
+      </c>
+      <c r="FF33">
+        <v>4</v>
+      </c>
+      <c r="FG33" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH33" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI33" t="s">
+        <v>187</v>
+      </c>
+      <c r="FJ33" t="s">
+        <v>912</v>
+      </c>
+      <c r="FK33" t="s">
+        <v>913</v>
+      </c>
+      <c r="FL33" t="s">
+        <v>914</v>
+      </c>
+      <c r="FM33" t="s">
+        <v>913</v>
+      </c>
+      <c r="FN33" t="s">
+        <v>915</v>
+      </c>
+      <c r="FO33" t="s">
+        <v>916</v>
+      </c>
+      <c r="FP33" t="s">
+        <v>917</v>
+      </c>
+      <c r="FQ33" t="s">
+        <v>918</v>
+      </c>
+      <c r="FR33" t="s">
+        <v>919</v>
+      </c>
+      <c r="FS33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34">
+        <v>21358253</v>
+      </c>
+      <c r="F34" t="s">
+        <v>855</v>
+      </c>
+      <c r="G34" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" t="s">
+        <v>920</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" t="s">
+        <v>921</v>
+      </c>
+      <c r="K34" t="s">
+        <v>922</v>
+      </c>
+      <c r="L34" t="s">
+        <v>923</v>
+      </c>
+      <c r="M34" t="s">
+        <v>924</v>
+      </c>
+      <c r="N34" t="s">
+        <v>925</v>
+      </c>
+      <c r="O34" t="s">
+        <v>926</v>
+      </c>
+      <c r="P34" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>293</v>
+      </c>
+      <c r="U34" t="s">
+        <v>226</v>
+      </c>
+      <c r="V34" t="s">
+        <v>928</v>
+      </c>
+      <c r="W34" t="s">
+        <v>929</v>
+      </c>
+      <c r="X34" t="s">
+        <v>927</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>928</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>929</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>927</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>4</v>
+      </c>
+      <c r="AZ34">
+        <v>4</v>
+      </c>
+      <c r="BA34">
+        <v>4</v>
+      </c>
+      <c r="BB34">
+        <v>4</v>
+      </c>
+      <c r="BC34">
+        <v>4</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>930</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>226</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>931</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>472</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>932</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>277</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>933</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>278</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>934</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>935</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>936</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>278</v>
+      </c>
+      <c r="DO34">
+        <v>3</v>
+      </c>
+      <c r="DP34">
+        <v>2</v>
+      </c>
+      <c r="DQ34">
+        <v>2</v>
+      </c>
+      <c r="DR34">
+        <v>3</v>
+      </c>
+      <c r="DT34" t="s">
+        <v>937</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV34">
+        <v>3</v>
+      </c>
+      <c r="DW34">
+        <v>3</v>
+      </c>
+      <c r="DX34">
+        <v>3</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA34" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC34" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED34" t="s">
+        <v>938</v>
+      </c>
+      <c r="EE34" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG34" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP34" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ34" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER34" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES34" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET34" t="s">
+        <v>939</v>
+      </c>
+      <c r="EU34" t="s">
+        <v>940</v>
+      </c>
+      <c r="EV34" t="s">
+        <v>941</v>
+      </c>
+      <c r="EY34">
+        <v>3</v>
+      </c>
+      <c r="EZ34">
+        <v>3</v>
+      </c>
+      <c r="FA34">
+        <v>3</v>
+      </c>
+      <c r="FB34">
+        <v>3</v>
+      </c>
+      <c r="FC34">
+        <v>3</v>
+      </c>
+      <c r="FD34">
+        <v>3</v>
+      </c>
+      <c r="FE34">
+        <v>3</v>
+      </c>
+      <c r="FF34">
+        <v>3</v>
+      </c>
+      <c r="FG34" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH34" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI34" t="s">
+        <v>187</v>
+      </c>
+      <c r="FJ34" t="s">
+        <v>942</v>
+      </c>
+      <c r="FK34" t="s">
+        <v>943</v>
+      </c>
+      <c r="FL34" t="s">
+        <v>944</v>
+      </c>
+      <c r="FM34" t="s">
+        <v>945</v>
+      </c>
+      <c r="FO34" t="s">
+        <v>946</v>
+      </c>
+      <c r="FP34" t="s">
+        <v>947</v>
+      </c>
+      <c r="FQ34" t="s">
+        <v>948</v>
+      </c>
+      <c r="FR34" t="s">
+        <v>949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92DEB8-FBEA-48DA-983B-99C2D807A201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412A50F-7AA9-448F-B1D1-D94FC85E351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="975">
   <si>
     <t>id</t>
   </si>
@@ -2993,6 +2993,86 @@
   </si>
   <si>
     <t xml:space="preserve">- To make partneship between private sector and the government </t>
+  </si>
+  <si>
+    <t>2025-05-05 00:00:00</t>
+  </si>
+  <si>
+    <t>Perry Ngoma</t>
+  </si>
+  <si>
+    <t>BASF Zambia Limited</t>
+  </si>
+  <si>
+    <t>Technical Manager</t>
+  </si>
+  <si>
+    <t>Block B, 4 on Bishops, Bishops Road, Kabulonga.</t>
+  </si>
+  <si>
+    <t>0971006124</t>
+  </si>
+  <si>
+    <t>perry.ngoma@basf.com</t>
+  </si>
+  <si>
+    <t>BASF Zambia</t>
+  </si>
+  <si>
+    <t>Zambia Environmental Management Act</t>
+  </si>
+  <si>
+    <t>https://www.parliament.gov.zm/sites/default/files/documents/acts/Environmetal%20Mangement%20Act%2012%20of%202011.pdf</t>
+  </si>
+  <si>
+    <t>Use of tolerant or resistant varieties
+Crop rotation
+Pesticide rotation</t>
+  </si>
+  <si>
+    <t>Zambia National Farmer Union</t>
+  </si>
+  <si>
+    <t>Small-scale Farmer Development Agency (SAFADA)</t>
+  </si>
+  <si>
+    <t>National Union for Small Scale Farmers of Zambia (NUSFAZ)</t>
+  </si>
+  <si>
+    <t>Agricultural Consultative Forum</t>
+  </si>
+  <si>
+    <t>There is no promotion or funding for research of new solutions.</t>
+  </si>
+  <si>
+    <t>Inadequate enforcement of regulations by the Regulator</t>
+  </si>
+  <si>
+    <t>Lack of specific regulations on biopesticides.</t>
+  </si>
+  <si>
+    <t>Lack of specific regulations on biocontrol agents.</t>
+  </si>
+  <si>
+    <t>Presence of cheaper and often poor quality competitor pesticides is the biggest barrier to new technology transfer.</t>
+  </si>
+  <si>
+    <t>Inadequate policing of poor quality and adulterated pesticides.</t>
+  </si>
+  <si>
+    <t>Promote research on new pesticides and Integrated pest management (IPM) trainings/awareness.</t>
+  </si>
+  <si>
+    <t>Enact specific laws to govern biopesticides and biocontrol.</t>
+  </si>
+  <si>
+    <t>Sponsor or fund research activities
+Share information on current research activities in other countries where they operate that might fit into the local systems.</t>
+  </si>
+  <si>
+    <t>Stricter regulatory enforcement to ensure a clear industry with high quality pesticides.
+Incorporate IPM in all awareness sessions especially to smallholder farmers.
+Publication of registered products in the Country by the regulator.</t>
   </si>
 </sst>
 </file>
@@ -3345,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS34"/>
+  <dimension ref="A1:FS35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13595,6 +13675,350 @@
         <v>949</v>
       </c>
     </row>
+    <row r="35" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35">
+        <v>1053486310</v>
+      </c>
+      <c r="F35" t="s">
+        <v>950</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>951</v>
+      </c>
+      <c r="I35" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" t="s">
+        <v>952</v>
+      </c>
+      <c r="K35" t="s">
+        <v>953</v>
+      </c>
+      <c r="L35" t="s">
+        <v>954</v>
+      </c>
+      <c r="M35" t="s">
+        <v>955</v>
+      </c>
+      <c r="O35" t="s">
+        <v>956</v>
+      </c>
+      <c r="P35" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>187</v>
+      </c>
+      <c r="U35" t="s">
+        <v>187</v>
+      </c>
+      <c r="V35" t="s">
+        <v>958</v>
+      </c>
+      <c r="W35" t="s">
+        <v>189</v>
+      </c>
+      <c r="X35" t="s">
+        <v>959</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW35">
+        <v>4</v>
+      </c>
+      <c r="AX35">
+        <v>4</v>
+      </c>
+      <c r="AY35">
+        <v>4</v>
+      </c>
+      <c r="AZ35">
+        <v>5</v>
+      </c>
+      <c r="BA35">
+        <v>5</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>201</v>
+      </c>
+      <c r="CZ35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DD35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DF35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DG35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DH35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DI35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DJ35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DK35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DL35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DM35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DN35" t="s">
+        <v>279</v>
+      </c>
+      <c r="DO35">
+        <v>2</v>
+      </c>
+      <c r="DP35">
+        <v>1</v>
+      </c>
+      <c r="DQ35">
+        <v>2</v>
+      </c>
+      <c r="DR35">
+        <v>2</v>
+      </c>
+      <c r="DT35" t="s">
+        <v>960</v>
+      </c>
+      <c r="DU35" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV35">
+        <v>1</v>
+      </c>
+      <c r="DW35">
+        <v>1</v>
+      </c>
+      <c r="DX35">
+        <v>4</v>
+      </c>
+      <c r="DY35" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA35" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC35" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE35" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG35" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ35" t="s">
+        <v>282</v>
+      </c>
+      <c r="EK35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP35" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ35" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER35" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES35" t="s">
+        <v>282</v>
+      </c>
+      <c r="ET35" t="s">
+        <v>961</v>
+      </c>
+      <c r="EU35" t="s">
+        <v>962</v>
+      </c>
+      <c r="EV35" t="s">
+        <v>963</v>
+      </c>
+      <c r="EW35" t="s">
+        <v>964</v>
+      </c>
+      <c r="EY35">
+        <v>5</v>
+      </c>
+      <c r="EZ35">
+        <v>4</v>
+      </c>
+      <c r="FA35">
+        <v>4</v>
+      </c>
+      <c r="FB35">
+        <v>3</v>
+      </c>
+      <c r="FC35">
+        <v>2</v>
+      </c>
+      <c r="FD35">
+        <v>4</v>
+      </c>
+      <c r="FE35">
+        <v>3</v>
+      </c>
+      <c r="FF35">
+        <v>3</v>
+      </c>
+      <c r="FG35" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH35" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI35" t="s">
+        <v>187</v>
+      </c>
+      <c r="FJ35" t="s">
+        <v>965</v>
+      </c>
+      <c r="FK35" t="s">
+        <v>966</v>
+      </c>
+      <c r="FL35" t="s">
+        <v>967</v>
+      </c>
+      <c r="FM35" t="s">
+        <v>968</v>
+      </c>
+      <c r="FN35" t="s">
+        <v>969</v>
+      </c>
+      <c r="FO35" t="s">
+        <v>970</v>
+      </c>
+      <c r="FP35" t="s">
+        <v>971</v>
+      </c>
+      <c r="FQ35" t="s">
+        <v>972</v>
+      </c>
+      <c r="FR35" t="s">
+        <v>973</v>
+      </c>
+      <c r="FS35" t="s">
+        <v>974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412A50F-7AA9-448F-B1D1-D94FC85E351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64679FE5-C3C2-4A54-85B6-3E36D6233103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1005">
   <si>
     <t>id</t>
   </si>
@@ -3073,6 +3073,112 @@
     <t>Stricter regulatory enforcement to ensure a clear industry with high quality pesticides.
 Incorporate IPM in all awareness sessions especially to smallholder farmers.
 Publication of registered products in the Country by the regulator.</t>
+  </si>
+  <si>
+    <t>2025-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>Belayneh Nigussie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant protection Director </t>
+  </si>
+  <si>
+    <t>bole sub city district 06, P. O box</t>
+  </si>
+  <si>
+    <t>+251913814833</t>
+  </si>
+  <si>
+    <t>belayneh.shalom8@gmail.com</t>
+  </si>
+  <si>
+    <t>www.moa.gov.et</t>
+  </si>
+  <si>
+    <t>Revise Agricultural and rural development</t>
+  </si>
+  <si>
+    <t>registration and control of pesticide</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>data found at EAA</t>
+  </si>
+  <si>
+    <t>can be field by EAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limited improvement has been done such as guideline developed by FAO Ethiopia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for all agricultural inputs tax is exempted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural inputs such as pesticide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for migratory pests the pesticide subsidized but for regular pest no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input supply union  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input supply cooperatives  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coffee grower cooperative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat grower cooperatives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">horticultural producer cooperatives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, policy such as drone usage policy 
+2, trained man power 
+3. Resource to introduce modern technologies 
+4. the countries universities curriculum couldn't include innovative technologies  in    the crop protection field </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> policy such as drone usage policy 
+2, trained man power 
+3. long chain input supply in to access the farmers 
+4. Illegal trade of inputs such as pesticides </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we don't have biopesticide polices and strategies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, trained man power 
+3. Resource to introduce modern technologies 
+4. the countries universities curriculum couldn't include innovative technologies  in    the crop protection field 
+5 infrastructure such as laboratory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, trained man power 
+3. Resource to introduce modern technologies 
+4. the countries universities curriculum couldn't include innovative technologies  in    the crop protection field 
+5 infrastructure such as laboratory   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what has been mentioned in the challenge should be improved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already the summited  plant protection and regulation proclamation  should be indorsed to  prim minister.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the private sector should be leaded by trained man power 
+all the policy issues should be effective and implemented 
+the private sector should be supported by PP modality to address the farmers as the government lacks resources 
+   </t>
   </si>
 </sst>
 </file>
@@ -3425,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS35"/>
+  <dimension ref="A1:FS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14019,6 +14125,320 @@
         <v>974</v>
       </c>
     </row>
+    <row r="36" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>174</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36">
+        <v>293301304</v>
+      </c>
+      <c r="F36" t="s">
+        <v>975</v>
+      </c>
+      <c r="G36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H36" t="s">
+        <v>976</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" t="s">
+        <v>977</v>
+      </c>
+      <c r="L36" t="s">
+        <v>978</v>
+      </c>
+      <c r="M36" t="s">
+        <v>979</v>
+      </c>
+      <c r="N36" t="s">
+        <v>979</v>
+      </c>
+      <c r="O36" t="s">
+        <v>980</v>
+      </c>
+      <c r="P36" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>192</v>
+      </c>
+      <c r="R36" t="s">
+        <v>982</v>
+      </c>
+      <c r="S36" t="s">
+        <v>407</v>
+      </c>
+      <c r="U36" t="s">
+        <v>192</v>
+      </c>
+      <c r="V36" t="s">
+        <v>983</v>
+      </c>
+      <c r="W36" t="s">
+        <v>984</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>489</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>985</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>985</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>985</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>2</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36">
+        <v>2</v>
+      </c>
+      <c r="BA36">
+        <v>4</v>
+      </c>
+      <c r="BB36">
+        <v>1</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>502</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>201</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>201</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>986</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>987</v>
+      </c>
+      <c r="DO36">
+        <v>3</v>
+      </c>
+      <c r="DP36">
+        <v>2</v>
+      </c>
+      <c r="DQ36">
+        <v>3</v>
+      </c>
+      <c r="DR36">
+        <v>2</v>
+      </c>
+      <c r="DS36">
+        <v>2</v>
+      </c>
+      <c r="DT36" t="s">
+        <v>988</v>
+      </c>
+      <c r="DU36" t="s">
+        <v>201</v>
+      </c>
+      <c r="DV36">
+        <v>2</v>
+      </c>
+      <c r="DW36">
+        <v>2</v>
+      </c>
+      <c r="DX36">
+        <v>3</v>
+      </c>
+      <c r="DY36" t="s">
+        <v>187</v>
+      </c>
+      <c r="DZ36" t="s">
+        <v>989</v>
+      </c>
+      <c r="EA36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EB36" t="s">
+        <v>990</v>
+      </c>
+      <c r="EC36" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED36" t="s">
+        <v>991</v>
+      </c>
+      <c r="EE36" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG36" t="s">
+        <v>737</v>
+      </c>
+      <c r="EH36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP36" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ36" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER36" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES36" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET36" t="s">
+        <v>992</v>
+      </c>
+      <c r="EU36" t="s">
+        <v>993</v>
+      </c>
+      <c r="EV36" t="s">
+        <v>994</v>
+      </c>
+      <c r="EW36" t="s">
+        <v>995</v>
+      </c>
+      <c r="EX36" t="s">
+        <v>996</v>
+      </c>
+      <c r="EZ36">
+        <v>3</v>
+      </c>
+      <c r="FA36">
+        <v>3</v>
+      </c>
+      <c r="FB36">
+        <v>3</v>
+      </c>
+      <c r="FC36">
+        <v>4</v>
+      </c>
+      <c r="FD36">
+        <v>3</v>
+      </c>
+      <c r="FE36">
+        <v>2</v>
+      </c>
+      <c r="FG36" t="s">
+        <v>201</v>
+      </c>
+      <c r="FH36" t="s">
+        <v>201</v>
+      </c>
+      <c r="FI36" t="s">
+        <v>201</v>
+      </c>
+      <c r="FJ36" t="s">
+        <v>997</v>
+      </c>
+      <c r="FK36" t="s">
+        <v>998</v>
+      </c>
+      <c r="FL36" t="s">
+        <v>999</v>
+      </c>
+      <c r="FN36" t="s">
+        <v>1000</v>
+      </c>
+      <c r="FO36" t="s">
+        <v>1001</v>
+      </c>
+      <c r="FP36" t="s">
+        <v>1002</v>
+      </c>
+      <c r="FQ36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="FR36" t="s">
+        <v>1004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64679FE5-C3C2-4A54-85B6-3E36D6233103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B15D06-9170-40C4-916E-59C401BD1168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1031">
   <si>
     <t>id</t>
   </si>
@@ -3179,6 +3179,84 @@
 all the policy issues should be effective and implemented 
 the private sector should be supported by PP modality to address the farmers as the government lacks resources 
    </t>
+  </si>
+  <si>
+    <t>2025-05-18 00:00:00</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atto Betty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CropLife Uganda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive Secretary </t>
+  </si>
+  <si>
+    <t>36952</t>
+  </si>
+  <si>
+    <t>+256 772348982</t>
+  </si>
+  <si>
+    <t>+256771348982</t>
+  </si>
+  <si>
+    <t>Info@croplifeug.org</t>
+  </si>
+  <si>
+    <t>www.croplifeug org</t>
+  </si>
+  <si>
+    <t>Agricultural chemical Act 2006</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAIF crop inspection and certification </t>
+  </si>
+  <si>
+    <t>Dossier Evaluation</t>
+  </si>
+  <si>
+    <t>No idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda seed trade Association </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGANDA Agro input Association </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda national farmers federation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORTIFRESH </t>
+  </si>
+  <si>
+    <t>National organic movement of Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative attitude to adopt </t>
+  </si>
+  <si>
+    <t>Limited funding to Regularly conduct survallent</t>
+  </si>
+  <si>
+    <t>Most farmers are not aware about it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Trainings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion of biopesticides in Uganda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to adopt  and promoted the use of innovation </t>
   </si>
 </sst>
 </file>
@@ -3531,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS36"/>
+  <dimension ref="A1:FS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14439,6 +14517,197 @@
         <v>1004</v>
       </c>
     </row>
+    <row r="37" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>177</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37">
+        <v>1588599000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I37" t="s">
+        <v>219</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>187</v>
+      </c>
+      <c r="R37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="DO37">
+        <v>4</v>
+      </c>
+      <c r="DP37">
+        <v>3</v>
+      </c>
+      <c r="DQ37">
+        <v>3</v>
+      </c>
+      <c r="DR37">
+        <v>2</v>
+      </c>
+      <c r="DU37" t="s">
+        <v>274</v>
+      </c>
+      <c r="DY37" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC37" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE37" t="s">
+        <v>201</v>
+      </c>
+      <c r="EH37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI37" t="s">
+        <v>282</v>
+      </c>
+      <c r="EJ37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK37" t="s">
+        <v>282</v>
+      </c>
+      <c r="EL37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP37" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ37" t="s">
+        <v>201</v>
+      </c>
+      <c r="ER37" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES37" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="EU37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="EW37" t="s">
+        <v>1023</v>
+      </c>
+      <c r="EX37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="FG37" t="s">
+        <v>274</v>
+      </c>
+      <c r="FH37" t="s">
+        <v>274</v>
+      </c>
+      <c r="FI37" t="s">
+        <v>274</v>
+      </c>
+      <c r="FJ37" t="s">
+        <v>1025</v>
+      </c>
+      <c r="FK37" t="s">
+        <v>1026</v>
+      </c>
+      <c r="FL37" t="s">
+        <v>1027</v>
+      </c>
+      <c r="FP37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="FQ37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="FR37" t="s">
+        <v>1030</v>
+      </c>
+      <c r="FS37" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B15D06-9170-40C4-916E-59C401BD1168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52364EA-7D04-4099-AAEF-D6613CBDD644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="1090">
   <si>
     <t>id</t>
   </si>
@@ -3257,6 +3257,183 @@
   </si>
   <si>
     <t xml:space="preserve">Need to adopt  and promoted the use of innovation </t>
+  </si>
+  <si>
+    <t>2025-05-14 00:00:00</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>OUEDRAOGO Richard</t>
+  </si>
+  <si>
+    <t>CILSS</t>
+  </si>
+  <si>
+    <t>Scientific Secretary</t>
+  </si>
+  <si>
+    <t>BP 1530 Bamako (Mali)</t>
+  </si>
+  <si>
+    <t>+223 20 22 47 06</t>
+  </si>
+  <si>
+    <t>+223 75 91 41 00</t>
+  </si>
+  <si>
+    <t>richard.ouedraogo@cilss.int</t>
+  </si>
+  <si>
+    <t>insah.cilss.int</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Common regulation for the registration of pesticides in CILSS member states</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>https://insah.cilss.int/wp-content/uploads/2023/08/CR_FOR_THE_REGISTRATION_OF_PESTICIDES_IN_CILSS_ENGLISH.pdf</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>Regulation C/REG.4/09/20 relating to the prevention of risk in biotechnology in ECOWAS</t>
+  </si>
+  <si>
+    <t>Common régulation for the registration of pesticides in CILSS member states</t>
+  </si>
+  <si>
+    <t>Sahelian Pesticide Committee (CSP)</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>Network of Farmers’and Producers’ Organizations in West Africa (ROPPA)</t>
+  </si>
+  <si>
+    <t>National Network of Chambers of Agriculture RECA (Niger)</t>
+  </si>
+  <si>
+    <t>Peasant Confederation of Faso CFP (Burkina Faso)</t>
+  </si>
+  <si>
+    <t>National Coordination of Farmer Organisation CNOP (Mali)</t>
+  </si>
+  <si>
+    <t>Federation of Non-Governmental Organizations of Senegal (FONGS – Action Paysanne)</t>
+  </si>
+  <si>
+    <t>The emergence of new solutions using lesser-known molecules and active substances. The impact of these molecules is not yet known at the local level.</t>
+  </si>
+  <si>
+    <t>The growing demand for approval of biopesticides developed by local research facilities.</t>
+  </si>
+  <si>
+    <t>Adapting regulatory texts to the context of new products emerging in the region. Finding provisions to facilitate the approval of biopesticides and other new solutions (reducing the data required, lowering approval fees, for example) while maintaining the rigor of scientific data evaluation.</t>
+  </si>
+  <si>
+    <t>2025-05-21 00:00:00</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Nolwazi Mkize</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory and Development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block C, Floor 1 | Westend Office Park | 254 Hall Street  | Die Hoewes | Centurion | 0157 </t>
+  </si>
+  <si>
+    <t>0714194837</t>
+  </si>
+  <si>
+    <t>nolwazi.mkize@fmc.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwjNmdPtpa-NAxWkTEEAHfuHADAQFnoECAoQAQ&amp;url=https%3A%2F%2Fag.fmc.com%2Fza%2Fen&amp;usg=AOvVaw1J9YQEd8-RdB091P7m5RL8&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Agriculture </t>
+  </si>
+  <si>
+    <t>https://www.gov.za/documents/fertilizers-farm-feeds-seeds-and-remedies-act-28-may-2015-1101</t>
+  </si>
+  <si>
+    <t>https://www.caa.co.za/industry-information/uas/</t>
+  </si>
+  <si>
+    <t>https://old.dalrrd.gov.za/doaDev/sideMenu/biosafety/doc/GUIDELINE4WORKwithGOM.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None i know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new crop protection products taking long to be evaluated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertainties for approval </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability not being accelerated as needed by the farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation is not accelerated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding of IPM, back log, few Technical advisors for evaluation </t>
+  </si>
+  <si>
+    <t>Collaboration of government, farmers and industry i.e. Training of regulators, Training of farmers</t>
+  </si>
+  <si>
+    <t>Regulatory framework including alignment on requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulatory framework, acceleration of evaluation, training of all parties </t>
   </si>
 </sst>
 </file>
@@ -3609,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS37"/>
+  <dimension ref="A1:FS39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14519,7 +14696,7 @@
     </row>
     <row r="37" spans="1:175" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
         <v>175</v>
@@ -14531,106 +14708,319 @@
         <v>176</v>
       </c>
       <c r="E37">
-        <v>1588599000</v>
+        <v>181185733</v>
       </c>
       <c r="F37" t="s">
-        <v>1005</v>
+        <v>1031</v>
       </c>
       <c r="G37" t="s">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="H37" t="s">
-        <v>1007</v>
+        <v>1033</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
       <c r="K37" t="s">
-        <v>1009</v>
+        <v>1035</v>
       </c>
       <c r="L37" t="s">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="M37" t="s">
-        <v>1011</v>
+        <v>1037</v>
       </c>
       <c r="N37" t="s">
-        <v>1012</v>
+        <v>1038</v>
       </c>
       <c r="O37" t="s">
-        <v>1013</v>
+        <v>1039</v>
       </c>
       <c r="P37" t="s">
-        <v>1014</v>
+        <v>1040</v>
       </c>
       <c r="Q37" t="s">
         <v>187</v>
       </c>
       <c r="R37" t="s">
-        <v>1015</v>
+        <v>1041</v>
       </c>
       <c r="S37" t="s">
-        <v>1016</v>
+        <v>1042</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="U37" t="s">
+        <v>187</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AW37">
+        <v>2</v>
+      </c>
+      <c r="AX37">
+        <v>4</v>
+      </c>
+      <c r="AY37">
+        <v>4</v>
+      </c>
+      <c r="AZ37">
+        <v>1</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>5</v>
       </c>
       <c r="BD37" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="BE37" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="BF37" t="s">
         <v>187</v>
       </c>
       <c r="BG37" t="s">
-        <v>1017</v>
+        <v>1047</v>
       </c>
       <c r="BH37" t="s">
-        <v>1018</v>
+        <v>187</v>
       </c>
       <c r="BI37" t="s">
-        <v>1019</v>
+        <v>187</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>187</v>
       </c>
       <c r="BV37" t="s">
-        <v>1019</v>
+        <v>1048</v>
       </c>
       <c r="BW37" t="s">
-        <v>1019</v>
+        <v>1049</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>1051</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>1053</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="CT37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="CU37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="CZ37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DA37" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB37" t="s">
+        <v>343</v>
+      </c>
+      <c r="DC37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>279</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>472</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DG37" t="s">
+        <v>279</v>
+      </c>
+      <c r="DH37" t="s">
+        <v>472</v>
+      </c>
+      <c r="DI37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DJ37" t="s">
+        <v>279</v>
+      </c>
+      <c r="DK37" t="s">
+        <v>472</v>
+      </c>
+      <c r="DL37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DM37" t="s">
+        <v>279</v>
+      </c>
+      <c r="DN37" t="s">
+        <v>343</v>
       </c>
       <c r="DO37">
+        <v>3</v>
+      </c>
+      <c r="DP37">
+        <v>1</v>
+      </c>
+      <c r="DQ37">
+        <v>1</v>
+      </c>
+      <c r="DR37">
+        <v>3</v>
+      </c>
+      <c r="DS37">
+        <v>1</v>
+      </c>
+      <c r="DU37" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV37">
         <v>4</v>
       </c>
-      <c r="DP37">
-        <v>3</v>
-      </c>
-      <c r="DQ37">
-        <v>3</v>
-      </c>
-      <c r="DR37">
-        <v>2</v>
-      </c>
-      <c r="DU37" t="s">
-        <v>274</v>
+      <c r="DW37">
+        <v>4</v>
+      </c>
+      <c r="DX37">
+        <v>3</v>
       </c>
       <c r="DY37" t="s">
         <v>201</v>
       </c>
       <c r="EA37" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="EC37" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="EE37" t="s">
         <v>201</v>
       </c>
+      <c r="EG37" t="s">
+        <v>203</v>
+      </c>
       <c r="EH37" t="s">
         <v>187</v>
       </c>
       <c r="EI37" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="EJ37" t="s">
         <v>187</v>
@@ -14654,58 +15044,572 @@
         <v>187</v>
       </c>
       <c r="EQ37" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="ER37" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="ES37" t="s">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="ET37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="EU37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>1059</v>
+      </c>
+      <c r="EW37" t="s">
+        <v>1060</v>
+      </c>
+      <c r="EX37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="EY37">
+        <v>1</v>
+      </c>
+      <c r="EZ37">
+        <v>1</v>
+      </c>
+      <c r="FA37">
+        <v>2</v>
+      </c>
+      <c r="FB37">
+        <v>2</v>
+      </c>
+      <c r="FC37">
+        <v>3</v>
+      </c>
+      <c r="FD37">
+        <v>4</v>
+      </c>
+      <c r="FE37">
+        <v>2</v>
+      </c>
+      <c r="FF37">
+        <v>3</v>
+      </c>
+      <c r="FG37" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH37" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI37" t="s">
+        <v>201</v>
+      </c>
+      <c r="FJ37" t="s">
+        <v>317</v>
+      </c>
+      <c r="FK37" t="s">
+        <v>1062</v>
+      </c>
+      <c r="FL37" t="s">
+        <v>1063</v>
+      </c>
+      <c r="FM37" t="s">
+        <v>317</v>
+      </c>
+      <c r="FN37" t="s">
+        <v>317</v>
+      </c>
+      <c r="FO37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="FP37" t="s">
+        <v>317</v>
+      </c>
+      <c r="FQ37" t="s">
+        <v>317</v>
+      </c>
+      <c r="FR37" t="s">
+        <v>317</v>
+      </c>
+      <c r="FS37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38">
+        <v>1588599000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I38" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>187</v>
+      </c>
+      <c r="R38" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="DO38">
+        <v>4</v>
+      </c>
+      <c r="DP38">
+        <v>3</v>
+      </c>
+      <c r="DQ38">
+        <v>3</v>
+      </c>
+      <c r="DR38">
+        <v>2</v>
+      </c>
+      <c r="DU38" t="s">
+        <v>274</v>
+      </c>
+      <c r="DY38" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC38" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE38" t="s">
+        <v>201</v>
+      </c>
+      <c r="EH38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI38" t="s">
+        <v>282</v>
+      </c>
+      <c r="EJ38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK38" t="s">
+        <v>282</v>
+      </c>
+      <c r="EL38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP38" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ38" t="s">
+        <v>201</v>
+      </c>
+      <c r="ER38" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES38" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET38" t="s">
         <v>1020</v>
       </c>
-      <c r="EU37" t="s">
+      <c r="EU38" t="s">
         <v>1021</v>
       </c>
-      <c r="EV37" t="s">
+      <c r="EV38" t="s">
         <v>1022</v>
       </c>
-      <c r="EW37" t="s">
+      <c r="EW38" t="s">
         <v>1023</v>
       </c>
-      <c r="EX37" t="s">
+      <c r="EX38" t="s">
         <v>1024</v>
       </c>
-      <c r="FG37" t="s">
-        <v>274</v>
-      </c>
-      <c r="FH37" t="s">
-        <v>274</v>
-      </c>
-      <c r="FI37" t="s">
-        <v>274</v>
-      </c>
-      <c r="FJ37" t="s">
+      <c r="FG38" t="s">
+        <v>274</v>
+      </c>
+      <c r="FH38" t="s">
+        <v>274</v>
+      </c>
+      <c r="FI38" t="s">
+        <v>274</v>
+      </c>
+      <c r="FJ38" t="s">
         <v>1025</v>
       </c>
-      <c r="FK37" t="s">
+      <c r="FK38" t="s">
         <v>1026</v>
       </c>
-      <c r="FL37" t="s">
+      <c r="FL38" t="s">
         <v>1027</v>
       </c>
-      <c r="FP37" t="s">
+      <c r="FP38" t="s">
         <v>1028</v>
       </c>
-      <c r="FQ37" t="s">
+      <c r="FQ38" t="s">
         <v>1029</v>
       </c>
-      <c r="FR37" t="s">
+      <c r="FR38" t="s">
         <v>1030</v>
       </c>
-      <c r="FS37" t="s">
-        <v>201</v>
+      <c r="FS38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>179</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39">
+        <v>1765628152</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I39" t="s">
+        <v>219</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>192</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="U39" t="s">
+        <v>192</v>
+      </c>
+      <c r="V39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+      <c r="AY39">
+        <v>4</v>
+      </c>
+      <c r="AZ39">
+        <v>4</v>
+      </c>
+      <c r="BA39">
+        <v>5</v>
+      </c>
+      <c r="BB39">
+        <v>5</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>276</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>489</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>489</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>489</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>489</v>
+      </c>
+      <c r="DO39">
+        <v>1</v>
+      </c>
+      <c r="DP39">
+        <v>1</v>
+      </c>
+      <c r="DQ39">
+        <v>1</v>
+      </c>
+      <c r="DR39">
+        <v>1</v>
+      </c>
+      <c r="DT39" t="s">
+        <v>1078</v>
+      </c>
+      <c r="DU39" t="s">
+        <v>201</v>
+      </c>
+      <c r="DV39">
+        <v>1</v>
+      </c>
+      <c r="DW39">
+        <v>2</v>
+      </c>
+      <c r="DX39">
+        <v>4</v>
+      </c>
+      <c r="DY39" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA39" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC39" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE39" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG39" t="s">
+        <v>737</v>
+      </c>
+      <c r="EH39" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI39" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK39" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM39" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET39" t="s">
+        <v>1079</v>
+      </c>
+      <c r="EU39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="EY39">
+        <v>4</v>
+      </c>
+      <c r="EZ39">
+        <v>2</v>
+      </c>
+      <c r="FA39">
+        <v>2</v>
+      </c>
+      <c r="FB39">
+        <v>2</v>
+      </c>
+      <c r="FC39">
+        <v>2</v>
+      </c>
+      <c r="FD39">
+        <v>3</v>
+      </c>
+      <c r="FE39">
+        <v>2</v>
+      </c>
+      <c r="FF39">
+        <v>1</v>
+      </c>
+      <c r="FG39" t="s">
+        <v>201</v>
+      </c>
+      <c r="FH39" t="s">
+        <v>201</v>
+      </c>
+      <c r="FI39" t="s">
+        <v>201</v>
+      </c>
+      <c r="FJ39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="FK39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="FL39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="FM39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="FN39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="FO39" t="s">
+        <v>1086</v>
+      </c>
+      <c r="FP39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="FQ39" t="s">
+        <v>1088</v>
+      </c>
+      <c r="FR39" t="s">
+        <v>1089</v>
       </c>
     </row>
   </sheetData>

--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52364EA-7D04-4099-AAEF-D6613CBDD644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48667B91-D658-4685-9BDF-E515263CD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="1108">
   <si>
     <t>id</t>
   </si>
@@ -3434,6 +3434,60 @@
   </si>
   <si>
     <t xml:space="preserve">regulatory framework, acceleration of evaluation, training of all parties </t>
+  </si>
+  <si>
+    <t>2025-05-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Assad Abdel Rahman</t>
+  </si>
+  <si>
+    <t>Agricultural Machinery &amp; Materials Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Head of Registration &amp; Development</t>
+  </si>
+  <si>
+    <t>6837 Abduljalil Alotaibi St., 3061 Alshohda Dist. Riyadh 13241</t>
+  </si>
+  <si>
+    <t>+966504265012</t>
+  </si>
+  <si>
+    <t>assad.abdelrahman@agrimatco-me.com</t>
+  </si>
+  <si>
+    <t>https://www.ammc.com.sa</t>
+  </si>
+  <si>
+    <t>Pesticides Law</t>
+  </si>
+  <si>
+    <t>05/12/2006</t>
+  </si>
+  <si>
+    <t>https://www.mewa.gov.sa/ar/InformationCenter/DocsCenter/RulesLibrary/Documents/%D9%86%D8%B8%D8%A7%D9%85%20%D8%A7%D9%84%D9%85%D8%A8%D9%8A%D8%AF%D8%A7%D8%AA.pdf</t>
+  </si>
+  <si>
+    <t>الخصوصية وحماية البيانات</t>
+  </si>
+  <si>
+    <t>https://www.mewa.gov.sa/ar/Ministry/AboutMinistry/RulesAndConditions/Ministrypolicies/Pages/RulesAndConditions.aspx</t>
+  </si>
+  <si>
+    <t>AgriServ</t>
+  </si>
+  <si>
+    <t>MEWA</t>
+  </si>
+  <si>
+    <t>King Saud University</t>
+  </si>
+  <si>
+    <t>Alqassim University</t>
   </si>
 </sst>
 </file>
@@ -3786,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS39"/>
+  <dimension ref="A1:FS40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15612,6 +15666,344 @@
         <v>1089</v>
       </c>
     </row>
+    <row r="40" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40">
+        <v>1073423899</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>489</v>
+      </c>
+      <c r="U40" t="s">
+        <v>192</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1100</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>489</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>489</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>489</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>3</v>
+      </c>
+      <c r="AZ40">
+        <v>4</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>3</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>489</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>489</v>
+      </c>
+      <c r="CZ40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA40" t="s">
+        <v>343</v>
+      </c>
+      <c r="DB40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DD40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DE40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DF40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DG40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DH40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DI40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DJ40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DK40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DL40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DM40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DN40" t="s">
+        <v>279</v>
+      </c>
+      <c r="DO40">
+        <v>4</v>
+      </c>
+      <c r="DP40">
+        <v>2</v>
+      </c>
+      <c r="DQ40">
+        <v>3</v>
+      </c>
+      <c r="DR40">
+        <v>3</v>
+      </c>
+      <c r="DS40">
+        <v>1</v>
+      </c>
+      <c r="DU40" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV40">
+        <v>4</v>
+      </c>
+      <c r="DW40">
+        <v>4</v>
+      </c>
+      <c r="DX40">
+        <v>3</v>
+      </c>
+      <c r="DY40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG40" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH40" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI40" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EK40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EL40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EM40" t="s">
+        <v>201</v>
+      </c>
+      <c r="EN40" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO40" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP40" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ40" t="s">
+        <v>201</v>
+      </c>
+      <c r="ER40" t="s">
+        <v>201</v>
+      </c>
+      <c r="ES40" t="s">
+        <v>201</v>
+      </c>
+      <c r="ET40" t="s">
+        <v>1105</v>
+      </c>
+      <c r="EU40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="EV40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="EW40" t="s">
+        <v>1107</v>
+      </c>
+      <c r="EY40">
+        <v>3</v>
+      </c>
+      <c r="EZ40">
+        <v>3</v>
+      </c>
+      <c r="FA40">
+        <v>3</v>
+      </c>
+      <c r="FB40">
+        <v>3</v>
+      </c>
+      <c r="FC40">
+        <v>3</v>
+      </c>
+      <c r="FD40">
+        <v>3</v>
+      </c>
+      <c r="FE40">
+        <v>4</v>
+      </c>
+      <c r="FF40">
+        <v>4</v>
+      </c>
+      <c r="FG40" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH40" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI40" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48667B91-D658-4685-9BDF-E515263CD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284108D-07B0-4006-8E53-2E55FBC7C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="1155">
   <si>
     <t>id</t>
   </si>
@@ -3488,6 +3488,159 @@
   </si>
   <si>
     <t>Alqassim University</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Lesten Banda</t>
+  </si>
+  <si>
+    <t>Pesticides Control board</t>
+  </si>
+  <si>
+    <t>Acting registrar</t>
+  </si>
+  <si>
+    <t>P.O.Box 51300, Limbe</t>
+  </si>
+  <si>
+    <t>+26599796723</t>
+  </si>
+  <si>
+    <t>+265887030517</t>
+  </si>
+  <si>
+    <t>registrar@pesticidesboardmw.com</t>
+  </si>
+  <si>
+    <t>www.pcb.mw</t>
+  </si>
+  <si>
+    <t>Pesticides (Amendment) Act 2018</t>
+  </si>
+  <si>
+    <t>march 2018</t>
+  </si>
+  <si>
+    <t>Pesticides Amendment Act</t>
+  </si>
+  <si>
+    <t>Biosafety Act of 2002</t>
+  </si>
+  <si>
+    <t>Pesticides (Amendment) Act</t>
+  </si>
+  <si>
+    <t>4,435</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>5,785</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>7,679</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>9,700</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>11,280</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Development of IPM strategy which is in Draft form</t>
+  </si>
+  <si>
+    <t>government provides free financial packages and connects innovative groups to donors for funding</t>
+  </si>
+  <si>
+    <t>NATIONAL SMALLHOLDERS FARMERS ASSOCIATION OF MALAWI</t>
+  </si>
+  <si>
+    <t>FARMERS UNION OF MALAWI</t>
+  </si>
+  <si>
+    <t>TOBACCO ASSOCIATION OF MALAWI</t>
+  </si>
+  <si>
+    <t>TEA GROWERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>COFFEE PLANTERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>Not adequately implemented
+Lack of resources to implement innovations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porous borders leading to illegal imports 
+Inadequate enforcement due to limited human resource
+Inadequate skills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No guidelines 
+No expertise to evaluate biopesticides dossiers
+Lack of testing facilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordination gaps - need strong coordination among key players e.g researchers, extension staff, regulators, NGOs and media 
+Lack of political will to fund the implementation/dissemination of the technology -  political will of policy makers 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaps in the regulations
+takes time to review the regulations due to bureaucracy in government system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordination to be improved
+Adequate funding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special legislations for registrations for biopesticides and biocontrol
+Incentives to farmers to adopt these control measures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should make heavy investment in research
+Awareness raising
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pump in incentives </t>
   </si>
 </sst>
 </file>
@@ -3840,10 +3993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS40"/>
+  <dimension ref="A1:FS41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16004,6 +16157,494 @@
         <v>187</v>
       </c>
     </row>
+    <row r="41" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41">
+        <v>173971050</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1115</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1116</v>
+      </c>
+      <c r="U41" t="s">
+        <v>192</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1118</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>705</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>274</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>4</v>
+      </c>
+      <c r="AZ41">
+        <v>5</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>3</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>279</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>1122</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>1123</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>317</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>317</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>1124</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>350</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>1125</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>317</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>317</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>1127</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>343</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>1129</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>1130</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>317</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>343</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>1134</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>317</v>
+      </c>
+      <c r="CT41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="CU41" t="s">
+        <v>277</v>
+      </c>
+      <c r="CV41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="CW41" t="s">
+        <v>1137</v>
+      </c>
+      <c r="CX41" t="s">
+        <v>1138</v>
+      </c>
+      <c r="CY41" t="s">
+        <v>317</v>
+      </c>
+      <c r="CZ41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DD41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DE41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DF41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DG41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DH41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DI41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DJ41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>279</v>
+      </c>
+      <c r="DO41">
+        <v>4</v>
+      </c>
+      <c r="DP41">
+        <v>2</v>
+      </c>
+      <c r="DQ41">
+        <v>1</v>
+      </c>
+      <c r="DR41">
+        <v>2</v>
+      </c>
+      <c r="DT41" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DU41" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV41">
+        <v>3</v>
+      </c>
+      <c r="DW41">
+        <v>2</v>
+      </c>
+      <c r="DX41">
+        <v>3</v>
+      </c>
+      <c r="DY41" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA41" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC41" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EE41" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG41" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH41" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI41" t="s">
+        <v>282</v>
+      </c>
+      <c r="EJ41" t="s">
+        <v>282</v>
+      </c>
+      <c r="EK41" t="s">
+        <v>282</v>
+      </c>
+      <c r="EL41" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM41" t="s">
+        <v>282</v>
+      </c>
+      <c r="EN41" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO41" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP41" t="s">
+        <v>282</v>
+      </c>
+      <c r="EQ41" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER41" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES41" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EU41" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EV41" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EW41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EX41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EY41">
+        <v>4</v>
+      </c>
+      <c r="EZ41">
+        <v>3</v>
+      </c>
+      <c r="FA41">
+        <v>1</v>
+      </c>
+      <c r="FB41">
+        <v>2</v>
+      </c>
+      <c r="FC41">
+        <v>2</v>
+      </c>
+      <c r="FD41">
+        <v>4</v>
+      </c>
+      <c r="FE41">
+        <v>2</v>
+      </c>
+      <c r="FF41">
+        <v>3</v>
+      </c>
+      <c r="FG41" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH41" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI41" t="s">
+        <v>187</v>
+      </c>
+      <c r="FJ41" t="s">
+        <v>1146</v>
+      </c>
+      <c r="FK41" t="s">
+        <v>1147</v>
+      </c>
+      <c r="FL41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="FM41" t="s">
+        <v>274</v>
+      </c>
+      <c r="FN41" t="s">
+        <v>1149</v>
+      </c>
+      <c r="FO41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FP41" t="s">
+        <v>1151</v>
+      </c>
+      <c r="FQ41" t="s">
+        <v>1152</v>
+      </c>
+      <c r="FR41" t="s">
+        <v>1153</v>
+      </c>
+      <c r="FS41" t="s">
+        <v>1154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
